--- a/BPS_FH_Dataset/22/chords.xlsx
+++ b/BPS_FH_Dataset/22/chords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="133">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -920,16 +916,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -952,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -975,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -998,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1021,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1041,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1064,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1090,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1113,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1182,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1248,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1271,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1297,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1320,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -1343,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>24</v>
       </c>
@@ -1353,8 +1349,8 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
+      <c r="D19" s="1">
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -1363,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -1386,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -1403,16 +1399,16 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>30</v>
       </c>
@@ -1445,8 +1441,8 @@
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
+      <c r="D23" s="1">
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
@@ -1455,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -1478,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -1495,16 +1491,16 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>36</v>
       </c>
@@ -1537,8 +1533,8 @@
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
+      <c r="D27" s="1">
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
@@ -1547,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>37</v>
       </c>
@@ -1570,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>38</v>
       </c>
@@ -1581,22 +1577,22 @@
         <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>39</v>
       </c>
@@ -1604,22 +1600,22 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>40</v>
       </c>
@@ -1627,22 +1623,22 @@
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>41</v>
       </c>
@@ -1656,16 +1652,16 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42</v>
       </c>
@@ -1673,22 +1669,22 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43</v>
       </c>
@@ -1702,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>46</v>
       </c>
@@ -1757,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>48</v>
       </c>
@@ -1767,8 +1763,8 @@
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
+      <c r="D37" s="1">
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
@@ -1777,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>49</v>
       </c>
@@ -1800,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>50</v>
       </c>
@@ -1817,16 +1813,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>51</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>54</v>
       </c>
@@ -1859,8 +1855,8 @@
       <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
+      <c r="D41" s="1">
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>16</v>
@@ -1869,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>55</v>
       </c>
@@ -1892,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>56</v>
       </c>
@@ -1909,16 +1905,16 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>57</v>
       </c>
@@ -1941,7 +1937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>60</v>
       </c>
@@ -1951,8 +1947,8 @@
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
+      <c r="D45" s="1">
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>16</v>
@@ -1961,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>61</v>
       </c>
@@ -1984,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>62</v>
       </c>
@@ -1995,22 +1991,22 @@
         <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>63</v>
       </c>
@@ -2018,22 +2014,22 @@
         <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>64</v>
       </c>
@@ -2041,22 +2037,22 @@
         <v>65</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>65</v>
       </c>
@@ -2070,16 +2066,16 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>66</v>
       </c>
@@ -2087,22 +2083,22 @@
         <v>67</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -2116,16 +2112,16 @@
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>69</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>70</v>
       </c>
@@ -2171,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>72</v>
       </c>
@@ -2191,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -2202,7 +2198,7 @@
         <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -2214,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>74</v>
       </c>
@@ -2237,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>76</v>
       </c>
@@ -2248,7 +2244,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -2260,10 +2256,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>77</v>
       </c>
@@ -2286,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>78</v>
       </c>
@@ -2300,16 +2296,16 @@
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>79</v>
       </c>
@@ -2317,22 +2313,22 @@
         <v>80</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1">
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>80</v>
       </c>
@@ -2343,19 +2339,19 @@
         <v>15</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>81</v>
       </c>
@@ -2363,7 +2359,7 @@
         <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -2375,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>82</v>
       </c>
@@ -2389,19 +2385,19 @@
         <v>15</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>83</v>
       </c>
@@ -2409,22 +2405,22 @@
         <v>84</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1">
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>84</v>
       </c>
@@ -2444,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>85</v>
       </c>
@@ -2455,7 +2451,7 @@
         <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -2467,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>86</v>
       </c>
@@ -2478,22 +2474,22 @@
         <v>87</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>87</v>
       </c>
@@ -2513,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>88</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -2536,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>89</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -2559,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>90</v>
       </c>
@@ -2570,22 +2566,22 @@
         <v>91</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F72" s="1">
         <v>3</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>91</v>
       </c>
@@ -2593,22 +2589,22 @@
         <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1">
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>92</v>
       </c>
@@ -2616,22 +2612,22 @@
         <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F74" s="1">
         <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>93</v>
       </c>
@@ -2639,22 +2635,22 @@
         <v>94</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>94</v>
       </c>
@@ -2662,22 +2658,22 @@
         <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F76" s="1">
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>95</v>
       </c>
@@ -2685,22 +2681,22 @@
         <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="1">
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>96</v>
       </c>
@@ -2708,22 +2704,22 @@
         <v>97</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F78" s="1">
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>97</v>
       </c>
@@ -2731,22 +2727,22 @@
         <v>98</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>98</v>
       </c>
@@ -2754,22 +2750,22 @@
         <v>102</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>102</v>
       </c>
@@ -2777,22 +2773,22 @@
         <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F81" s="1">
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>103</v>
       </c>
@@ -2800,7 +2796,7 @@
         <v>104</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2815,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>104</v>
       </c>
@@ -2823,22 +2819,22 @@
         <v>105</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D83" s="1">
         <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F83" s="1">
         <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>105</v>
       </c>
@@ -2846,7 +2842,7 @@
         <v>108</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -2861,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>108</v>
       </c>
@@ -2869,22 +2865,22 @@
         <v>111</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="1">
         <v>5</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="1">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>111</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>114</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -2907,7 +2903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>114</v>
       </c>
@@ -2915,7 +2911,7 @@
         <v>115</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2927,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>115</v>
       </c>
@@ -2938,7 +2934,7 @@
         <v>116</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2950,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>116</v>
       </c>
@@ -2961,7 +2957,7 @@
         <v>118</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -2973,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>118</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>119</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="1">
         <v>2</v>
@@ -2996,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>119</v>
       </c>
@@ -3007,7 +3003,7 @@
         <v>120</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -3022,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>120</v>
       </c>
@@ -3030,22 +3026,22 @@
         <v>121</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" s="1">
         <v>7</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>121</v>
       </c>
@@ -3053,7 +3049,7 @@
         <v>122</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
@@ -3065,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>122</v>
       </c>
@@ -3076,7 +3072,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -3088,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>123</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>124</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -3111,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>124</v>
       </c>
@@ -3122,22 +3118,22 @@
         <v>125</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>125</v>
       </c>
@@ -3145,7 +3141,7 @@
         <v>126</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
@@ -3160,7 +3156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>126</v>
       </c>
@@ -3168,7 +3164,7 @@
         <v>127</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -3180,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>127</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>128</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -3203,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>128</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>129</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -3226,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>129</v>
       </c>
@@ -3237,7 +3233,7 @@
         <v>130</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -3249,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>130</v>
       </c>
@@ -3260,7 +3256,7 @@
         <v>131</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -3272,10 +3268,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>131</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>132</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -3295,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>132</v>
       </c>
@@ -3306,22 +3302,22 @@
         <v>133</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F104" s="1">
         <v>3</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>133</v>
       </c>
@@ -3329,22 +3325,22 @@
         <v>134</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105" s="1">
         <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>134</v>
       </c>
@@ -3352,22 +3348,22 @@
         <v>135</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F106" s="1">
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>135</v>
       </c>
@@ -3375,22 +3371,22 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" s="1">
         <v>4</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>136</v>
       </c>
@@ -3398,22 +3394,22 @@
         <v>137</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F108" s="1">
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>137</v>
       </c>
@@ -3421,22 +3417,22 @@
         <v>138</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109" s="1">
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>138</v>
       </c>
@@ -3444,22 +3440,22 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D110" s="1">
         <v>5</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>139</v>
       </c>
@@ -3467,7 +3463,7 @@
         <v>140</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3479,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>140</v>
       </c>
@@ -3490,22 +3486,22 @@
         <v>141</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F112" s="1">
         <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>141</v>
       </c>
@@ -3513,7 +3509,7 @@
         <v>142</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -3525,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>142</v>
       </c>
@@ -3536,22 +3532,22 @@
         <v>143</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D114" s="1">
         <v>5</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F114" s="1">
         <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>143</v>
       </c>
@@ -3559,7 +3555,7 @@
         <v>144</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -3571,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>144</v>
       </c>
@@ -3582,22 +3578,22 @@
         <v>145</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F116" s="1">
         <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>145</v>
       </c>
@@ -3605,7 +3601,7 @@
         <v>147</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -3617,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>147</v>
       </c>
@@ -3628,22 +3624,22 @@
         <v>149</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D118" s="1">
         <v>5</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>149</v>
       </c>
@@ -3651,22 +3647,22 @@
         <v>150</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>150</v>
       </c>
@@ -3674,22 +3670,22 @@
         <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" s="1">
         <v>5</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F120" s="1">
         <v>3</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>151</v>
       </c>
@@ -3697,22 +3693,22 @@
         <v>152</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>152</v>
       </c>
@@ -3720,22 +3716,22 @@
         <v>153</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F122" s="1">
         <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>153</v>
       </c>
@@ -3743,22 +3739,22 @@
         <v>156</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>156</v>
       </c>
@@ -3766,22 +3762,22 @@
         <v>159</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D124" s="1">
         <v>5</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>159</v>
       </c>
@@ -3789,22 +3785,22 @@
         <v>161</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>161</v>
       </c>
@@ -3812,22 +3808,22 @@
         <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F126" s="1">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>164</v>
       </c>
@@ -3835,22 +3831,22 @@
         <v>165</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D127" s="1">
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>165</v>
       </c>
@@ -3858,22 +3854,22 @@
         <v>167</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>167</v>
       </c>
@@ -3881,22 +3877,22 @@
         <v>170</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D129" s="1">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129" s="1">
-        <v>0</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>170</v>
       </c>
@@ -3904,22 +3900,22 @@
         <v>171</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D130" s="1">
         <v>5</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>171</v>
       </c>
@@ -3927,22 +3923,22 @@
         <v>177</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D131" s="1">
-        <v>1</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>177</v>
       </c>
@@ -3950,22 +3946,22 @@
         <v>180</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D132" s="1">
         <v>4</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>180</v>
       </c>
@@ -3973,22 +3969,22 @@
         <v>183</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="E133" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>183</v>
       </c>
@@ -3996,22 +3992,22 @@
         <v>207</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D134" s="4">
         <v>5</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F134" s="4">
         <v>0</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>207</v>
       </c>
@@ -4034,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>208</v>
       </c>
@@ -4057,7 +4053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>209</v>
       </c>
@@ -4080,7 +4076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>210</v>
       </c>
@@ -4100,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>211</v>
       </c>
@@ -4123,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>213</v>
       </c>
@@ -4149,7 +4145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>215</v>
       </c>
@@ -4172,7 +4168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>216</v>
       </c>
@@ -4195,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>218</v>
       </c>
@@ -4218,7 +4214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>219</v>
       </c>
@@ -4241,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>220</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>221</v>
       </c>
@@ -4287,7 +4283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>222</v>
       </c>
@@ -4307,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>223</v>
       </c>
@@ -4330,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>225</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>227</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>228</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>231</v>
       </c>
@@ -4412,8 +4408,8 @@
       <c r="C152" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>17</v>
+      <c r="D152" s="1">
+        <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>16</v>
@@ -4422,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>232</v>
       </c>
@@ -4445,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>233</v>
       </c>
@@ -4462,16 +4458,16 @@
         <v>7</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F154" s="1">
-        <v>1</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>234</v>
       </c>
@@ -4494,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>237</v>
       </c>
@@ -4504,8 +4500,8 @@
       <c r="C156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>17</v>
+      <c r="D156" s="1">
+        <v>1</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>16</v>
@@ -4514,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>238</v>
       </c>
@@ -4537,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>239</v>
       </c>
@@ -4554,16 +4550,16 @@
         <v>7</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>240</v>
       </c>
@@ -4586,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>243</v>
       </c>
@@ -4596,8 +4592,8 @@
       <c r="C160" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>17</v>
+      <c r="D160" s="1">
+        <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>16</v>
@@ -4606,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>244</v>
       </c>
@@ -4629,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>245</v>
       </c>
@@ -4640,22 +4636,22 @@
         <v>246</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D162" s="1">
-        <v>2</v>
-      </c>
-      <c r="E162" s="1" t="s">
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F162" s="1">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>246</v>
       </c>
@@ -4669,16 +4665,16 @@
         <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F163" s="1">
-        <v>1</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>247</v>
       </c>
@@ -4692,16 +4688,16 @@
         <v>4</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>248</v>
       </c>
@@ -4715,16 +4711,16 @@
         <v>7</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>249</v>
       </c>
@@ -4732,22 +4728,22 @@
         <v>250</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>250</v>
       </c>
@@ -4767,10 +4763,10 @@
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>252</v>
       </c>
@@ -4793,7 +4789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>253</v>
       </c>
@@ -4816,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>255</v>
       </c>
@@ -4826,8 +4822,8 @@
       <c r="C170" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>17</v>
+      <c r="D170" s="1">
+        <v>1</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>16</v>
@@ -4836,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>256</v>
       </c>
@@ -4859,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>257</v>
       </c>
@@ -4876,16 +4872,16 @@
         <v>7</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F172" s="1">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>258</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>261</v>
       </c>
@@ -4918,8 +4914,8 @@
       <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>17</v>
+      <c r="D174" s="1">
+        <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>16</v>
@@ -4928,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>262</v>
       </c>
@@ -4939,7 +4935,7 @@
         <v>263</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D175" s="1">
         <v>4</v>
@@ -4951,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>263</v>
       </c>
@@ -4968,16 +4964,16 @@
         <v>7</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F176" s="1">
-        <v>1</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>264</v>
       </c>
@@ -5000,7 +4996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>267</v>
       </c>
@@ -5010,8 +5006,8 @@
       <c r="C178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>17</v>
+      <c r="D178" s="1">
+        <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>16</v>
@@ -5020,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>268</v>
       </c>
@@ -5043,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>269</v>
       </c>
@@ -5054,22 +5050,22 @@
         <v>270</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="1">
-        <v>2</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F180" s="1">
-        <v>0</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>270</v>
       </c>
@@ -5083,16 +5079,16 @@
         <v>5</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F181" s="1">
-        <v>1</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>271</v>
       </c>
@@ -5106,16 +5102,16 @@
         <v>4</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F182" s="1">
-        <v>1</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>272</v>
       </c>
@@ -5129,16 +5125,16 @@
         <v>7</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F183" s="1">
-        <v>0</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>273</v>
       </c>
@@ -5146,22 +5142,22 @@
         <v>274</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F184" s="1">
-        <v>1</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>274</v>
       </c>
@@ -5181,10 +5177,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>276</v>
       </c>
@@ -5207,7 +5203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>278</v>
       </c>
@@ -5230,7 +5226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>279</v>
       </c>
@@ -5250,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>280</v>
       </c>
@@ -5261,7 +5257,7 @@
         <v>281</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -5273,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>281</v>
       </c>
@@ -5296,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>283</v>
       </c>
@@ -5307,7 +5303,7 @@
         <v>284</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -5319,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>284</v>
       </c>
@@ -5345,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>285</v>
       </c>
@@ -5359,16 +5355,16 @@
         <v>7</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F193" s="1">
-        <v>1</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>286</v>
       </c>
@@ -5376,7 +5372,7 @@
         <v>287</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D194" s="1">
         <v>6</v>
@@ -5388,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>287</v>
       </c>
@@ -5402,19 +5398,19 @@
         <v>10</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F195" s="1">
         <v>1</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>288</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>289</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D196" s="1">
         <v>4</v>
@@ -5434,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>289</v>
       </c>
@@ -5448,19 +5444,19 @@
         <v>10</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F197" s="1">
         <v>0</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>290</v>
       </c>
@@ -5468,7 +5464,7 @@
         <v>300</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D198" s="1">
         <v>5</v>
@@ -5483,7 +5479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>300</v>
       </c>
@@ -5491,22 +5487,22 @@
         <v>309</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D199" s="1">
         <v>5</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F199" s="1">
-        <v>0</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>309</v>
       </c>
@@ -5514,22 +5510,22 @@
         <v>314</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D200" s="4">
         <v>5</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F200" s="4">
         <v>3</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>314</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>315</v>
       </c>
@@ -5572,10 +5568,10 @@
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>316</v>
       </c>
@@ -5589,16 +5585,16 @@
         <v>4</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F203" s="1">
-        <v>0</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>317</v>
       </c>
@@ -5621,7 +5617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>318</v>
       </c>
@@ -5641,10 +5637,10 @@
         <v>2</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>319</v>
       </c>
@@ -5658,16 +5654,16 @@
         <v>4</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F206" s="1">
-        <v>0</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>321</v>
       </c>
@@ -5690,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>323</v>
       </c>
@@ -5713,7 +5709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>324</v>
       </c>
@@ -5736,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>326</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>327</v>
       </c>
@@ -5779,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>328</v>
       </c>
@@ -5796,16 +5792,16 @@
         <v>4</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F212" s="1">
-        <v>0</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>329</v>
       </c>
@@ -5828,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>330</v>
       </c>
@@ -5848,10 +5844,10 @@
         <v>2</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>331</v>
       </c>
@@ -5865,16 +5861,16 @@
         <v>4</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F215" s="1">
-        <v>0</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>333</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>335</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>336</v>
       </c>
@@ -5943,7 +5939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>339</v>
       </c>
@@ -5953,8 +5949,8 @@
       <c r="C219" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>17</v>
+      <c r="D219" s="1">
+        <v>1</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>16</v>
@@ -5963,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>340</v>
       </c>
@@ -5986,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>341</v>
       </c>
@@ -6003,16 +5999,16 @@
         <v>7</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F221" s="1">
-        <v>1</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>342</v>
       </c>
@@ -6035,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>345</v>
       </c>
@@ -6045,8 +6041,8 @@
       <c r="C223" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>17</v>
+      <c r="D223" s="1">
+        <v>1</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>16</v>
@@ -6055,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>346</v>
       </c>
@@ -6078,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>347</v>
       </c>
@@ -6095,16 +6091,16 @@
         <v>7</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F225" s="1">
-        <v>1</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>348</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>351</v>
       </c>
@@ -6137,8 +6133,8 @@
       <c r="C227" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>17</v>
+      <c r="D227" s="1">
+        <v>1</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>16</v>
@@ -6147,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>352</v>
       </c>
@@ -6170,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>353</v>
       </c>
@@ -6181,22 +6177,22 @@
         <v>354</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D229" s="1">
-        <v>2</v>
-      </c>
-      <c r="E229" s="1" t="s">
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F229" s="1">
-        <v>0</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>354</v>
       </c>
@@ -6210,16 +6206,16 @@
         <v>5</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F230" s="1">
-        <v>1</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>355</v>
       </c>
@@ -6233,16 +6229,16 @@
         <v>4</v>
       </c>
       <c r="E231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F231" s="1">
-        <v>1</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>356</v>
       </c>
@@ -6256,16 +6252,16 @@
         <v>7</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F232" s="1">
-        <v>0</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>357</v>
       </c>
@@ -6273,22 +6269,22 @@
         <v>358</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="E233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F233" s="1">
-        <v>1</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>358</v>
       </c>
@@ -6308,10 +6304,10 @@
         <v>1</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>360</v>
       </c>
@@ -6334,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>361</v>
       </c>
@@ -6357,7 +6353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>363</v>
       </c>
@@ -6367,8 +6363,8 @@
       <c r="C237" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>17</v>
+      <c r="D237" s="1">
+        <v>1</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>16</v>
@@ -6377,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>364</v>
       </c>
@@ -6400,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>365</v>
       </c>
@@ -6417,16 +6413,16 @@
         <v>7</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F239" s="1">
-        <v>1</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>366</v>
       </c>
@@ -6449,7 +6445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>369</v>
       </c>
@@ -6457,10 +6453,10 @@
         <v>370</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>17</v>
+        <v>118</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>16</v>
@@ -6469,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>370</v>
       </c>
@@ -6492,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>371</v>
       </c>
@@ -6509,16 +6505,16 @@
         <v>7</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F243" s="1">
+        <v>1</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F243" s="1">
-        <v>1</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>372</v>
       </c>
@@ -6541,7 +6537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>375</v>
       </c>
@@ -6551,8 +6547,8 @@
       <c r="C245" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>17</v>
+      <c r="D245" s="1">
+        <v>1</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>16</v>
@@ -6561,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>376</v>
       </c>
@@ -6584,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>377</v>
       </c>
@@ -6595,22 +6591,22 @@
         <v>378</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D247" s="1">
-        <v>2</v>
-      </c>
-      <c r="E247" s="1" t="s">
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F247" s="1">
-        <v>0</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>378</v>
       </c>
@@ -6624,16 +6620,16 @@
         <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F248" s="1">
+        <v>1</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F248" s="1">
-        <v>1</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>379</v>
       </c>
@@ -6647,16 +6643,16 @@
         <v>4</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F249" s="1">
+        <v>1</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F249" s="1">
-        <v>1</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>380</v>
       </c>
@@ -6670,16 +6666,16 @@
         <v>7</v>
       </c>
       <c r="E250" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F250" s="1">
-        <v>0</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>381</v>
       </c>
@@ -6687,22 +6683,22 @@
         <v>382</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="E251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>1</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F251" s="1">
-        <v>1</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>382</v>
       </c>
@@ -6722,10 +6718,10 @@
         <v>1</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>383</v>
       </c>
@@ -6733,22 +6729,22 @@
         <v>384</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D253" s="1">
         <v>5</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F253" s="1">
         <v>3</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>384</v>
       </c>
@@ -6756,22 +6752,22 @@
         <v>385</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F254" s="1">
         <v>1</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>385</v>
       </c>
@@ -6791,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>386</v>
       </c>
@@ -6802,22 +6798,22 @@
         <v>387</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D256" s="1">
         <v>5</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F256" s="1">
         <v>3</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>387</v>
       </c>
@@ -6825,22 +6821,22 @@
         <v>388</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F257" s="1">
         <v>1</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>388</v>
       </c>
@@ -6848,22 +6844,22 @@
         <v>389</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D258" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F258" s="1">
+        <v>1</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F258" s="1">
-        <v>1</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>389</v>
       </c>
@@ -6871,22 +6867,22 @@
         <v>390</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D259" s="1">
         <v>2</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F259" s="1">
         <v>0</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>390</v>
       </c>
@@ -6894,22 +6890,22 @@
         <v>391</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D260" s="1">
         <v>5</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F260" s="1">
         <v>1</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>391</v>
       </c>
@@ -6932,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>392</v>
       </c>
@@ -6940,22 +6936,22 @@
         <v>393</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F262" s="1">
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>393</v>
       </c>
@@ -6963,22 +6959,22 @@
         <v>399</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D263" s="1">
         <v>2</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F263" s="1">
         <v>1</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>399</v>
       </c>
@@ -6986,22 +6982,22 @@
         <v>408</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D264" s="1">
         <v>5</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F264" s="1">
         <v>0</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>408</v>
       </c>
@@ -7024,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>410</v>
       </c>
@@ -7032,22 +7028,22 @@
         <v>411</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D266" s="1">
         <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F266" s="1">
         <v>3</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>411</v>
       </c>
@@ -7070,7 +7066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>416</v>
       </c>
@@ -7078,22 +7074,22 @@
         <v>417</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D268" s="1">
         <v>5</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F268" s="1">
         <v>0</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>417</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>422</v>
       </c>
@@ -7124,22 +7120,22 @@
         <v>423</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D270" s="1">
         <v>5</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F270" s="1">
         <v>3</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>423</v>
       </c>
@@ -7162,7 +7158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>428</v>
       </c>
@@ -7170,22 +7166,22 @@
         <v>429</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D272" s="1">
         <v>5</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F272" s="1">
         <v>0</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>429</v>
       </c>
@@ -7208,7 +7204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>441</v>
       </c>
@@ -7216,22 +7212,22 @@
         <v>447</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D274" s="1">
         <v>7</v>
       </c>
       <c r="E274" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F274" s="1">
+        <v>1</v>
+      </c>
+      <c r="G274" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F274" s="1">
-        <v>1</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>447</v>
       </c>
@@ -7239,22 +7235,22 @@
         <v>450</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D275" s="1">
         <v>5</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F275" s="1">
         <v>1</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>450</v>
       </c>
@@ -7277,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>452</v>
       </c>
@@ -7285,22 +7281,22 @@
         <v>453</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D277" s="1">
         <v>5</v>
       </c>
       <c r="E277" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0</v>
+      </c>
+      <c r="G277" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F277" s="1">
-        <v>0</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>453</v>
       </c>
@@ -7323,7 +7319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>455</v>
       </c>
@@ -7331,22 +7327,22 @@
         <v>459</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D279" s="1">
         <v>5</v>
       </c>
       <c r="E279" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F279" s="1">
-        <v>0</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>459</v>
       </c>
